--- a/cases/2021sdzyydxfsyy/指标导向表.xlsx
+++ b/cases/2021sdzyydxfsyy/指标导向表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\量化相关\别名表+维度表+导向表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\山东中医药大学附属医院\D数据分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48368DA9-B6F4-412E-BB58-5402EB8EA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061BFD4-636D-4C20-A5DC-94B75EDCC22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BCE35EAD-E767-4A31-A077-F3917411795E}"/>
   </bookViews>
@@ -366,38 +366,6 @@
   </si>
   <si>
     <t>住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>住院患者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>天非计划再返率</t>
-    </r>
   </si>
   <si>
     <t>低风险组病例死亡率</t>
@@ -543,6 +511,9 @@
   </si>
   <si>
     <t>门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t>住院患者出院后0到31天非预期再住院率</t>
   </si>
 </sst>
 </file>
@@ -975,7 +946,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
@@ -986,18 +957,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1005,7 +976,7 @@
     </row>
     <row r="3" spans="1:3" ht="16">
       <c r="A3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1013,7 +984,7 @@
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1021,7 +992,7 @@
     </row>
     <row r="5" spans="1:3" ht="16">
       <c r="A5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1029,7 +1000,7 @@
     </row>
     <row r="6" spans="1:3" ht="16">
       <c r="A6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1040,7 +1011,7 @@
     </row>
     <row r="7" spans="1:3" ht="16">
       <c r="A7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1051,7 +1022,7 @@
     </row>
     <row r="8" spans="1:3" ht="16">
       <c r="A8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1062,7 +1033,7 @@
     </row>
     <row r="9" spans="1:3" ht="16">
       <c r="A9" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1073,7 +1044,7 @@
     </row>
     <row r="10" spans="1:3" ht="16">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1081,7 +1052,7 @@
     </row>
     <row r="11" spans="1:3" ht="16">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1092,7 +1063,7 @@
     </row>
     <row r="12" spans="1:3" ht="16">
       <c r="A12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1103,7 +1074,7 @@
     </row>
     <row r="13" spans="1:3" ht="16">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1114,7 +1085,7 @@
     </row>
     <row r="14" spans="1:3" ht="16">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1826,7 +1797,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
